--- a/medicine/Enfance/Prix_Kenjirō-Tsukahara/Prix_Kenjirō-Tsukahara.xlsx
+++ b/medicine/Enfance/Prix_Kenjirō-Tsukahara/Prix_Kenjirō-Tsukahara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Kenjir%C5%8D-Tsukahara</t>
+          <t>Prix_Kenjirō-Tsukahara</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Kenjirō-Tsukahara (塚原健二郎文学賞, Tsukahara Kenjirō Bungaku shō?) est un prix littéraire décerné tous les ans de 1978 à 1991 en mémoire de l'écrivain Kenjiro Tsukahara, afin de promouvoir la littérature pour l'enfance et la jeunesse. Le prix est initialement attribué par la « Fondation Kenjirō-Tsukahara pour la littérature pour la jeunesse » sous la direction de l'écrivain Shizue Miyaguchi, puis à partir de 1989, par l'éditeur Kyōdo (郷土出版社, Kyōdo Shuppan). La 14e et dernière cérémonie de remise du prix s'est tenue le 8 mars 1991.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Kenjir%C5%8D-Tsukahara</t>
+          <t>Prix_Kenjirō-Tsukahara</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1978
 Noboru Wada pour Kanashimi no Toride (悲しみの砦)
-Kazuo Miyashita pour Yu kaburi jinta (湯かぶり仁太)[1]
+Kazuo Miyashita pour Yu kaburi jinta (湯かぶり仁太)
 1979
 Masakimi Tsukada pour Bi to ai no tatakai (美と愛のたたかい)
 Motoku Katsuno pour Hotaru to bidate (ホタルとびたて)
